--- a/成發流程_主持搞.xlsx
+++ b/成發流程_主持搞.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilson\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECDD42B-DDA7-4A92-B270-3DBFACE831DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>時間</t>
   </si>
@@ -150,41 +156,10 @@
     <t>party time</t>
   </si>
   <si>
-    <t>1) 工作人員為大家精心剪輯2支影片，第一支讓我們來回顧實習過程的點點滴滴，請影片手幫我們播放！第二支是大家的mentor想對A+說的一小段話，也請影片手幫我們播放！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先歡迎教授進來就坐,再一一介紹
-今天很榮幸邀請到OO學校的OOO教授,我們請教授跟大家揮揮手
-動物學家,姓名,學校系所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUE評分PPT
-配分比、13分鐘響鈴一次、15分鐘響鈴第二次、超過15分鐘不計分，請入圍的小辛巴特別留意！
-最後會有5分鐘給教授們QA的時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>報告上半場1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人名、主題、QA
-接下來我們請評審教授，給予報告同學提問或回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下來是短暫的休息時間，我們請評審教授們可以休息一下，請掌聲！
-提醒所有A+的夥伴，待會活動會在OO準時開始，務必準時回到座位上，特別是待會要報告的同學</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請教授先離開 最後回場,
-提醒回來時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13:00-13:25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,36 +193,6 @@
   </si>
   <si>
     <t>報告下半場12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我們請工作人員協助評審教授們收回評分表(等待收走後再繼續)
-現在是評審講評的階段，讓我們邀請評審教授為今天的成發會講評
-掌聲歡迎OO大學OO教授！
-謝謝OO教授給予我們的回饋！
-接下來我們掌聲歡迎OO大學OO教授！
-謝謝OO教授給予我們的回饋！
-接下來我們掌聲歡迎OO大學OO教授！
-謝謝OO教授給予我們的回饋！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下來是短暫的休息時間，我們請評審教授們可以休息一下，請掌聲！
-提醒所有A+的夥伴，待會活動會在OO準時開始，務必準時回到座位上，我們要進行今天的重頭戲----頒獎
-(確認分數計算完成再開始頒獎)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頒發7-12名,跟評審合照
-頒發4-6名,跟評審合照
-頒發1-3名,跟評審合照
-邀請12位入圍小辛巴跟所有評審一起合照
-感謝評審今天一整天的陪伴,我們再次用最熱烈的掌聲感謝評審教授</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有實習生拿著證書合照
-投party time PPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,33 +216,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1) 請大家依照抽到的號碼入座。大家好我是今天的主持人
-2) 在場所有A+夥伴 小辛巴們,都是今天的主角,入圍的夥伴帶給我們精彩的報告,我們成就入圍夥伴的舞台.有大家的參與,才完整了整個A+的計畫.讓我們一起,全神貫注一直參與到最後一刻！是不是再給自己一次熱烈的掌聲?
-3) 我們請場邊的工作人員發下白紙,大家在白紙上畫上4*4的16宮格,並隨機填入1-16的數字。待會我們會投影出機智問答的題目，每個題目都會附帶一個數字，以組別搶答，答對的組別可以把該數字圈選，最先連成一條線的組別獲勝！獲勝的組別才能參加下一階段的挑戰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>確認頒獎音樂,
 確認獎項PPT(會沒有名單),
 照相確認合照範圍,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1) 介紹靠北畫室：在這個進階版的遊戲中,由我們的製圖擔當“友達畢卡索”即時作畫,為大家畫出一系列精美畫作,最先猜出繪畫主題的前三名有獎品！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 獅子王裡有一位的靈魂人物,在辛巴的成長過程中,引領辛巴不只生活技能,更在辛巴的生命中點一盞明燈,我們可以說沒有他,就沒有辛巴.他叫拉飛奇,友達也有一位拉飛奇,他是我們的大家長忠達,在我們大家長的帶領下,入圍了非常多優秀的A+夥伴
-大家長忠達
+    <t>1) 多拉A夢在大雄的成長過程中,引領大雄解決許多的難關與問題,我們可以說沒有他,就沒有大雄.他叫多拉A夢,友達也有一位多拉A夢,他是我們的大家長忠達,在我們大家長的帶領下,入圍了非常多優秀的A+夥伴
+現在就讓忠達來為大家講幾句話
 2) 主管留步,跟大家一起合照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在精彩的決賽開始之前，讓我們先玩個輕鬆的小遊戲，緩解一下參賽者緊張的氣氛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 我們的遊戲名稱叫做靠北畫室，在這個遊戲中,由我們每組輪流各派5個組員上來，每個人只能畫12秒，輪流接力用電腦的小畫家繪畫，畫出一個包含人事時地物的題目，例如: 達達虎...，接著會讓其餘的組員進行猜測，如果猜對最多題的小組可以獲得獎品!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 請大家依照對應的工號入座。大家好我是今天的主持人
+2) 在場所有A+夥伴 大雄們,都是今天的主角,入圍的夥伴帶給我們精彩的報告,我們成就入圍夥伴的舞台.有大家的參與,才完整了整個A+的計畫.讓我們一起,全神貫注一直參與到最後一刻！是不是再給自己一次熱烈的掌聲?
+</t>
+  </si>
+  <si>
+    <t>1. 連接
+2. 每一句話都要打出來
+3. 規則
+4. 多拉A夢的原因
+5. 解釋大雄
+6. 不要叫評審出去</t>
+  </si>
+  <si>
+    <t>(音樂)ㄟ這個音樂是?多拉A夢嗎?沒錯!是我們的多拉A夢來到的現場!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接著就為各位介紹各種領域的菁英科學家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(先歡迎教授進來就坐)再一一介紹
+今天很榮幸邀請到OO學校的OOO教授,我們請教授跟大家揮揮手xN次
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接著讓我們來講接今天決賽的評分標準以及規則
+(配分比)...至於參賽者的報告時間，13分鐘響鈴一次、15分鐘響鈴第二次、超過15分鐘不計分，請入圍的大雄特別留意！
+最後會有5分鐘給教授們QA的時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讓我們來歡迎第N位大雄OOO、報告主題是XXX，(工作人員帶動拍手)
+接下來我們請評審教授，給予報告同學提問或回饋</t>
+  </si>
+  <si>
+    <t>讓我們來歡迎第N位大雄OOO、報告主題是XXX，(工作人員帶動拍手)
+接下來我們請評審教授，給予報告同學提問或回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讓我們來歡迎第N位大雄OOO、報告主題是XXX，(工作人員帶動拍手)
+接下來我們請評審教授，給予報告同學提問或回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下來是短暫的休息時間，請評審教授們以及各位大雄們稍作休息
+待會活動會在OO準時開始，務必準時回到座位上，特別是待會要報告的同學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(前一分鐘)第二場次報告即將開始，請各位大雄盡速就座
+好，接下來是第二場次的報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上半場次報告到此告一段落，現在是用餐時間，請教授先行跟隨工作人員的引導至用餐地點。各位實習生們則可以至地下一樓或7-11用餐，並在13:00回到座位上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下來是短暫的休息時間，請評審教授們以及各位大雄們稍作休息。
+待會活動會在OO準時開始，務必準時回到座位上，特別是待會要報告的同學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(前一分鐘)下午報告即將開始，請各位大雄盡速就座
+好，接下來是下午場次的報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(前一分鐘)最後一場次的報告即將開始，請各位大雄盡速就座
+好，接下來是最後場次的報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020A+實習專案成果報告在此告一段落，請工作人員協助評審教授們收回評分表(等待收走後再繼續)
+接下來讓我們邀請評審教授為今天的發表會進行講評
+首先讓我們以熱烈掌聲歡迎OO大學OO教授！
+謝謝OO教授給予我們的回饋！
+接下來我們掌聲歡迎OO大學OO教授！
+謝謝OO教授給予我們的回饋！
+接下來我們掌聲歡迎OO大學OO教授！
+謝謝OO教授給予我們的回饋！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下來是短暫的休息時間，請評審教授們以及各位大雄們稍作休息。
+待會活動會在OO準時開始，務必準時回到座位上，我們要進行今天的重頭戲----頒獎
+(確認分數計算完成再開始頒獎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(前一分鐘)頒獎即將開始，請各位大雄盡速就座
+好，接下來是緊張的名次公布時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先頒發7-12名，得獎的有…..,請得獎者上台並邀請XXX上台頒獎
+首先頒發4-6名，得獎的有…..,請得獎者上台並邀請XXX上台頒獎
+首先頒發1-3名，得獎的有…..,請得獎者上台並邀請XXX上台頒獎
+最後，邀請12位入圍大雄跟所有評審一起合照
+感謝評審今天一整天的細心審核,我們再次用最熱烈的掌聲感謝評審教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們的工作人員為大家精心剪輯2支影片，第一支讓我們來回顧實習過程的點點滴滴，請影片手幫我們播放！第二支是大家的mentor想對A+說的一小段話，也請影片手幫我們播放！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨著本次發表會接近尾聲，也代表著各位的A+實習生涯即將告一段落，相信大家在兩個月的實習生活中都獲得了寶貴的知識以及回憶，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">看完了我們感人的影片之後，最後是實習證明的頒發時間，請所有實習生依序上台領取實習證明。
+最後請大家注意，我們即將進行大合照的時間，請大家等等拿著實習證明集中到中間，並且，在合照後，我們將進行PARTY TIME!大家可以直接移動到OOO(拍完照再講一次)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱哥開秀
+歡迎大家來參加今天的A+實習生專案發表會，大家可以看到今天的主題是多拉A夢，友達就像白寶袋一樣，提供我們無限的可能性。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,6 +461,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -653,33 +724,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="181" zoomScalePageLayoutView="181" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="63.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="63.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,299 +758,370 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="173.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="59.1" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="94.5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="47.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="47.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="63">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.5">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="31.5">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="31.5">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="47.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="31.5">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.5">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="31.5">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="31.5">
-      <c r="A17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C34" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="31.5">
-      <c r="A18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="47.25">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="31.5">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="31.5">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.5">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="126">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="63">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="78.75">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="31.5">
-      <c r="A26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="409.5">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
